--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_EMMLProfiles.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_EMMLProfiles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -781,22 +781,26 @@
 isTextNotPresent(keycap_id);</t>
   </si>
   <si>
-    <t>wait(3);
+    <t><![CDATA[wait(3);
 PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\PB\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
-ChangeConfigxml(Applications/Application/NPAPI/Preloads,PreloadLegacyActiveX,&lt;PreloadLegacyActiveX value="1"/&gt;);
-PushConfigxml;</t>
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,<StartPage value="http://127.0.0.1:8082/app/" name="Menu"/>);
+ChangeConfigxml(Configuration,WebServer,<WebServer>endl  <Enabled VALUE="1"/>endl  <Port VALUE="8082"/>endl  <WebFolder VALUE="\\auto\\PB\"/>endl  <Public VALUE="1"/>endl</WebServer>endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,<FullScreen value="0"/>);
+ChangeConfigxml(Applications/Application/NPAPI/Preloads,PreloadLegacyActiveX,<PreloadLegacyActiveX value="1"/>);
+PushConfigxml;]]></t>
   </si>
   <si>
     <t>PB EMML Profiles</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1337,14 +1341,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="44.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="44.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" thickBot="1">
@@ -1406,7 +1410,9 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="203.25" thickBot="1">
@@ -1932,9 +1938,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_EMMLProfiles.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_EMMLProfiles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -781,26 +781,22 @@
 isTextNotPresent(keycap_id);</t>
   </si>
   <si>
-    <t><![CDATA[wait(3);
+    <t>wait(3);
 PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,<StartPage value="http://127.0.0.1:8082/app/" name="Menu"/>);
-ChangeConfigxml(Configuration,WebServer,<WebServer>endl  <Enabled VALUE="1"/>endl  <Port VALUE="8082"/>endl  <WebFolder VALUE="\\auto\\PB\"/>endl  <Public VALUE="1"/>endl</WebServer>endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,<FullScreen value="0"/>);
-ChangeConfigxml(Applications/Application/NPAPI/Preloads,PreloadLegacyActiveX,<PreloadLegacyActiveX value="1"/>);
-PushConfigxml;]]></t>
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\PB\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
+ChangeConfigxml(Applications/Application/NPAPI/Preloads,PreloadLegacyActiveX,&lt;PreloadLegacyActiveX value="1"/&gt;);
+PushConfigxml;</t>
   </si>
   <si>
     <t>PB EMML Profiles</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1335,20 +1331,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="44.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" thickBot="1">
@@ -1410,9 +1406,7 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="203.25" thickBot="1">
@@ -1938,9 +1932,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
